--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frekotj/Documents/Software Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507B5EE3-CB19-3347-B632-FB3AA00F75AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A068AE60-8D15-904C-B3DD-B01AEE0159A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>User Story #1</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Multiple Options in GUI</t>
   </si>
   <si>
-    <t>Perimter</t>
-  </si>
-  <si>
     <t>Learn Google ApI</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>Attach the perimter option to GUI</t>
   </si>
   <si>
-    <t>Test the GUI</t>
-  </si>
-  <si>
     <t>Isaac</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t xml:space="preserve">Build UML </t>
   </si>
   <si>
-    <t>Merge both Gui from sprints</t>
-  </si>
-  <si>
     <t>Jarod</t>
   </si>
   <si>
@@ -153,6 +144,18 @@
   </si>
   <si>
     <t>Attach Google API to code</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Merge both GUI from sprints</t>
+  </si>
+  <si>
+    <t>Double check the GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit the UML </t>
   </si>
 </sst>
 </file>
@@ -413,25 +416,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,7 +916,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1051,29 +1054,29 @@
     </row>
     <row r="4" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
       </c>
       <c r="J4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
         <v>1</v>
@@ -1104,10 +1107,10 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="9">
         <v>5</v>
@@ -1149,23 +1152,23 @@
     </row>
     <row r="6" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
         <v>1</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2</v>
       </c>
       <c r="I6" s="9">
         <v>1</v>
@@ -1174,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="K6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1198,36 +1201,18 @@
     </row>
     <row r="7" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1250,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1280,17 +1265,17 @@
     </row>
     <row r="9" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
@@ -1302,13 +1287,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="9">
         <v>1</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1329,29 +1314,29 @@
     </row>
     <row r="10" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="J10" s="9">
         <v>1</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
@@ -1378,14 +1363,14 @@
     </row>
     <row r="11" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="9">
         <v>5</v>
@@ -1427,36 +1412,18 @@
     </row>
     <row r="12" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1479,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1509,14 +1476,14 @@
     </row>
     <row r="14" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="9">
         <v>3</v>
@@ -1558,14 +1525,14 @@
     </row>
     <row r="15" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="9">
         <v>4</v>
@@ -1577,13 +1544,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -1607,22 +1574,36 @@
     </row>
     <row r="16" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="9">
         <v>5</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1642,16 +1623,12 @@
     </row>
     <row r="17" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9">
-        <v>7</v>
-      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1679,7 +1656,9 @@
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7">
+        <v>15</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1708,18 +1687,36 @@
     </row>
     <row r="19" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="9">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1739,18 +1736,36 @@
     </row>
     <row r="20" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1770,18 +1785,36 @@
     </row>
     <row r="21" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="9">
+        <v>5</v>
+      </c>
+      <c r="G21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="H21" s="9">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1863,7 +1896,7 @@
     </row>
     <row r="24" spans="2:28" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1994,31 +2027,31 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5">
         <f>SUM(F3:F27)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" s="5">
         <f>F28 - SUM(G4:G27)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ref="H28:K28" si="0">G28 - SUM(H4:H27)</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L28" s="5">
         <f>K28 - SUM(L4:L27)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
